--- a/aplicação/tabela_vi_exemplo.xlsx
+++ b/aplicação/tabela_vi_exemplo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\new_tese_after_git\eletronica\SMU\my_stuff\final_GUI\GUI-and-data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diogo\Desktop\dissertacao\aplicação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491D3417-8824-47F8-B019-F19586DBC35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B9A4AD-BF18-4B61-823C-BA0A384E7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,8 +511,8 @@
       <c r="E2" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F2">
-        <v>1E-4</v>
+      <c r="F2" s="1">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -555,8 +555,8 @@
       <c r="E3" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F3">
-        <v>1E-4</v>
+      <c r="F3" s="1">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -599,8 +599,8 @@
       <c r="E4" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F4">
-        <v>1E-4</v>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -643,8 +643,8 @@
       <c r="E5" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F5">
-        <v>1E-4</v>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -687,8 +687,8 @@
       <c r="E6" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F6">
-        <v>1E-4</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -731,8 +731,8 @@
       <c r="E7" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F7">
-        <v>1E-4</v>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -775,8 +775,8 @@
       <c r="E8" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F8">
-        <v>1E-4</v>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -819,8 +819,8 @@
       <c r="E9" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F9">
-        <v>1E-4</v>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -863,8 +863,8 @@
       <c r="E10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F10">
-        <v>1E-4</v>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -907,8 +907,8 @@
       <c r="E11" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F11">
-        <v>1E-4</v>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -951,8 +951,8 @@
       <c r="E12" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F12">
-        <v>1E-4</v>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -995,8 +995,8 @@
       <c r="E13" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F13">
-        <v>1E-4</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1039,8 +1039,8 @@
       <c r="E14" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F14">
-        <v>1E-4</v>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1083,8 +1083,8 @@
       <c r="E15" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F15">
-        <v>1E-4</v>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1127,8 +1127,8 @@
       <c r="E16" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="F16">
-        <v>1E-4</v>
+      <c r="F16" s="1">
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
